--- a/xcelfiles/fbLogin.xlsx
+++ b/xcelfiles/fbLogin.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,10 +415,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -450,6 +450,8 @@
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
